--- a/data/trans_orig/P1498-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5CFBB2-0F45-4608-8CB3-23E21A738EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C33CC0E-DA57-4554-BAA5-65CA6CBA362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{579854E3-A8CE-4B72-AB75-8DD11094D0D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2AE593-2EB1-4172-A598-08AD9B26DDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F762357-CF27-4AF7-BD98-816C326EF856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9EAB3B-5A9A-439F-B821-95E47F9527B2}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A00552-A661-4F56-9431-0820C7AA0663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9821EE-4A6D-4E27-A787-8429B47234BB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P1498-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C33CC0E-DA57-4554-BAA5-65CA6CBA362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F2B478-2E7E-4C53-82BC-B7FECC412367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2AE593-2EB1-4172-A598-08AD9B26DDE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{502A8C02-FE1A-4205-90FB-3B12036B10EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,7 +123,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9EAB3B-5A9A-439F-B821-95E47F9527B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFEF735-9199-4878-8A11-D8C293334403}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1374,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9821EE-4A6D-4E27-A787-8429B47234BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802AD5D9-B32F-480D-A8D0-255509E3BF60}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
